--- a/data/trans_dic/P2C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1920454523389104</v>
+        <v>0.1917326639491568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3658923958809401</v>
+        <v>0.3658625050867028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.247463406622848</v>
+        <v>0.2464178086539702</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1460526879376714</v>
+        <v>0.145694951668379</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2410345445255949</v>
+        <v>0.2421377271199814</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4057298516554815</v>
+        <v>0.4044888785889236</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3088964284804711</v>
+        <v>0.305689856612261</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2425805244142313</v>
+        <v>0.2423172800010537</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2267874655797694</v>
+        <v>0.2277570532838711</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3979127389196245</v>
+        <v>0.3979515130077824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2892134607232479</v>
+        <v>0.2921613080139789</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2082357059643227</v>
+        <v>0.2070115439933367</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2434018031264232</v>
+        <v>0.2419592218354784</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.428241308259996</v>
+        <v>0.4298189463461661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3117676074405816</v>
+        <v>0.3131634719927525</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2028366175092704</v>
+        <v>0.2034245582556746</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2910147935298076</v>
+        <v>0.290012554226898</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4629819204822985</v>
+        <v>0.4617983295618812</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3701216608461773</v>
+        <v>0.368288316205552</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.292975655896174</v>
+        <v>0.2909119522776669</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.261869575082574</v>
+        <v>0.2615673589566218</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4398935564391188</v>
+        <v>0.4401525170529358</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3351228811671711</v>
+        <v>0.3348158606313699</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2449078959509345</v>
+        <v>0.2450081424100078</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4079452008564601</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1696949604047017</v>
+        <v>0.1696949604047016</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3674098033357445</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3115850940367023</v>
+        <v>0.3102905681567049</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4607608522862729</v>
+        <v>0.4592761891833737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3050747483819098</v>
+        <v>0.3031391523590505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1199081657627338</v>
+        <v>0.1202627229446908</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3780920648530249</v>
+        <v>0.3802143398211517</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5532882984843087</v>
+        <v>0.5554654995581229</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3830562954983728</v>
+        <v>0.3862907749254419</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1553610486330881</v>
+        <v>0.1535564013640528</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3508642185110079</v>
+        <v>0.3497292986911997</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5119423396233339</v>
+        <v>0.5129084209852327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3522653470172085</v>
+        <v>0.3510254360041043</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.140076513044542</v>
+        <v>0.1417589565312004</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3575258659931956</v>
+        <v>0.3569748498525745</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5060584982257376</v>
+        <v>0.5056621834172006</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3466523265472589</v>
+        <v>0.3467599918430381</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1529108560176071</v>
+        <v>0.1541088081027586</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4263461408104372</v>
+        <v>0.4275621104893042</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.603469150856751</v>
+        <v>0.6037497052719292</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4281010771379178</v>
+        <v>0.4337104567588037</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.186194674713961</v>
+        <v>0.1840228353102677</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3841631555880541</v>
+        <v>0.3834941473950124</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5467749167747715</v>
+        <v>0.5464007258843795</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3821182298037812</v>
+        <v>0.381609766315109</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1636700795578218</v>
+        <v>0.1641448569213131</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.358357026035828</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.112530345630141</v>
+        <v>0.1125303456301409</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2613788828072699</v>
+        <v>0.2652809606095037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3578312516984115</v>
+        <v>0.3600066555936349</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2696283078379677</v>
+        <v>0.267925364538254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08464382907554475</v>
+        <v>0.08384411179176253</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3312148206062544</v>
+        <v>0.3329521902234263</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4608388164802259</v>
+        <v>0.4595263041308748</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3640174417041145</v>
+        <v>0.3665426896074815</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09725830567573784</v>
+        <v>0.09759760063144156</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3081832062745852</v>
+        <v>0.3040210394585091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4235467631808501</v>
+        <v>0.4228740554342229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3305654659521498</v>
+        <v>0.3290903766652685</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09580831829319454</v>
+        <v>0.09771210715560404</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3414233835431746</v>
+        <v>0.3446085900467162</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4553598251903708</v>
+        <v>0.4538274180052369</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3493889195353155</v>
+        <v>0.3508202079998551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1413854525273544</v>
+        <v>0.1408228733831415</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4192953176627369</v>
+        <v>0.4212830448252044</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5604639322682148</v>
+        <v>0.5607777507430058</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4545862917571071</v>
+        <v>0.4531084268780977</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1399237802247519</v>
+        <v>0.1401768299639276</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3646489679542381</v>
+        <v>0.3679980488457126</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4909158530801053</v>
+        <v>0.4909907347181792</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3899060440557648</v>
+        <v>0.3880202436181389</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.131568496100719</v>
+        <v>0.1303689511979805</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2761184462465214</v>
+        <v>0.2761808669706685</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4305868082255414</v>
+        <v>0.4299236657757272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.297153012663038</v>
+        <v>0.2958893615305063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1226405989195434</v>
+        <v>0.1236756589069492</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.328906436686189</v>
+        <v>0.3290128291786754</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4985842130579515</v>
+        <v>0.4988377819805886</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3702019311971719</v>
+        <v>0.3716446120052599</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1695481710782355</v>
+        <v>0.1710824335622748</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3061989827960247</v>
+        <v>0.3075943485142042</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4698253850296932</v>
+        <v>0.4684149161424504</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3393831155931243</v>
+        <v>0.3389150827122644</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.150935868767806</v>
+        <v>0.1508023747074113</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3067442804999569</v>
+        <v>0.3092231833609704</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4651237397395942</v>
+        <v>0.465749899557654</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3297504949951489</v>
+        <v>0.3285379834089807</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.148787548921795</v>
+        <v>0.149247546091737</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3616037976298744</v>
+        <v>0.3626918066934735</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5336648682986649</v>
+        <v>0.533498546576291</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.404115727568657</v>
+        <v>0.4080770615633103</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1909261407108414</v>
+        <v>0.1930136769808624</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3291655942423995</v>
+        <v>0.3307077488160163</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4942274914185124</v>
+        <v>0.493928491229856</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3632875574461357</v>
+        <v>0.3620069832999336</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1674560215291885</v>
+        <v>0.1681624189143756</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>198138</v>
+        <v>197815</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>356614</v>
+        <v>356585</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>186673</v>
+        <v>185885</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>84496</v>
+        <v>84289</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>316988</v>
+        <v>318438</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>542784</v>
+        <v>541124</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>307247</v>
+        <v>304057</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>199410</v>
+        <v>199194</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>532233</v>
+        <v>534508</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>920149</v>
+        <v>920239</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>505836</v>
+        <v>510992</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>291648</v>
+        <v>289934</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>251123</v>
+        <v>249635</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>417382</v>
+        <v>418920</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>235181</v>
+        <v>236234</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>117347</v>
+        <v>117687</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>382717</v>
+        <v>381399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>619376</v>
+        <v>617792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>368145</v>
+        <v>366322</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>240837</v>
+        <v>239141</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>614565</v>
+        <v>613855</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1017227</v>
+        <v>1017826</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>586132</v>
+        <v>585595</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>343010</v>
+        <v>343150</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>527642</v>
+        <v>525450</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>904915</v>
+        <v>901999</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>633453</v>
+        <v>629434</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>267463</v>
+        <v>268254</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>600287</v>
+        <v>603656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>972572</v>
+        <v>976399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>761631</v>
+        <v>768062</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>337350</v>
+        <v>333431</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1151216</v>
+        <v>1147492</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1905327</v>
+        <v>1908922</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1431848</v>
+        <v>1426808</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>616611</v>
+        <v>624017</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>605439</v>
+        <v>604506</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>993877</v>
+        <v>993099</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>719784</v>
+        <v>720007</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>341078</v>
+        <v>343750</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>676898</v>
+        <v>678829</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1060780</v>
+        <v>1061273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>851193</v>
+        <v>862347</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>404302</v>
+        <v>399586</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1260472</v>
+        <v>1258277</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2034965</v>
+        <v>2033572</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1553190</v>
+        <v>1551123</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>720469</v>
+        <v>722559</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>144126</v>
+        <v>146278</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>172182</v>
+        <v>173228</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>147456</v>
+        <v>146525</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>60231</v>
+        <v>59662</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>157795</v>
+        <v>158622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>211355</v>
+        <v>210753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>199897</v>
+        <v>201283</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>71473</v>
+        <v>71722</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>316757</v>
+        <v>312479</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>398055</v>
+        <v>397423</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>362309</v>
+        <v>360692</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>138583</v>
+        <v>141337</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>188264</v>
+        <v>190020</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>219110</v>
+        <v>218373</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>191076</v>
+        <v>191859</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>100608</v>
+        <v>100208</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>199757</v>
+        <v>200704</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>257046</v>
+        <v>257190</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>249632</v>
+        <v>248820</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>102827</v>
+        <v>103013</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>374794</v>
+        <v>378236</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>461369</v>
+        <v>461439</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>427348</v>
+        <v>425281</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>190309</v>
+        <v>188574</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>904714</v>
+        <v>904918</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1472513</v>
+        <v>1470245</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1003669</v>
+        <v>999401</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>431779</v>
+        <v>435423</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1111440</v>
+        <v>1111799</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1772083</v>
+        <v>1772984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1307590</v>
+        <v>1312686</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>632128</v>
+        <v>637848</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2037981</v>
+        <v>2047268</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3276568</v>
+        <v>3266731</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2345042</v>
+        <v>2341808</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1094133</v>
+        <v>1093165</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1005061</v>
+        <v>1013183</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1590622</v>
+        <v>1592763</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1113771</v>
+        <v>1109676</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>523834</v>
+        <v>525453</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1221930</v>
+        <v>1225607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1896768</v>
+        <v>1896177</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1427377</v>
+        <v>1441369</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>711831</v>
+        <v>719614</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2190841</v>
+        <v>2201105</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>3446748</v>
+        <v>3444663</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2510215</v>
+        <v>2501366</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1213887</v>
+        <v>1219008</v>
       </c>
     </row>
     <row r="20">
